--- a/workflow/BasinEntities/Recreation-Trails/data/trail-orgs-data.xlsx
+++ b/workflow/BasinEntities/Recreation-Trails/data/trail-orgs-data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Organization</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>Poudre Trail Corridor, Inc, 321 N 16th Ave, Greeley, CO 80631</t>
+  </si>
+  <si>
+    <t>Cameron Pass Nordic Ranger Program</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>Nordic trail maintenance</t>
+  </si>
+  <si>
+    <t>Nordic trail maintenance, education.</t>
+  </si>
+  <si>
+    <t>https://www.fs.usda.gov/detail/arp/workingtogether/volunteering/?cid=stelprdb5213201</t>
+  </si>
+  <si>
+    <t>Coordinates for Moose Visitor Center</t>
   </si>
 </sst>
 </file>
@@ -520,19 +538,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="46.109375" customWidth="1"/>
-    <col min="5" max="5" width="71.109375" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
@@ -580,35 +598,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
-        <v>-105.07315</v>
-      </c>
-      <c r="H2" s="2">
-        <v>40.53125</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
+      <c r="G2">
+        <v>-105.882266</v>
+      </c>
+      <c r="H2">
+        <v>40.527357000000002</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -729,6 +745,37 @@
       </c>
       <c r="L6" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-105.07315</v>
+      </c>
+      <c r="H7" s="2">
+        <v>40.53125</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
